--- a/datasets/Gyeongbu_HSR.xlsx
+++ b/datasets/Gyeongbu_HSR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\03MyProjects\South_Korea_High-speed_Rail_Planning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECCDD6B-AEAF-4DC7-8DD9-1B87EEED7B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB280230-8610-4350-891B-D7E42052D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="684" windowWidth="13908" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t>Train</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Gwangmyeong, Cheonan-Asan, Osong, Daejeon, Seodaegu, Dongdaegu, Miryang, Mulgeum, Gupo</t>
+  </si>
+  <si>
+    <t>HSR ONLY</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,8 +545,9 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="95" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -591,14 +595,19 @@
       <c r="E2" s="3">
         <v>0.10833333333333334</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H2" s="5">
+        <f>0.00074*G2</f>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -616,14 +625,19 @@
       <c r="E3" s="3">
         <v>0.11597222222222223</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H59" si="0">0.00074*G3</f>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -641,13 +655,16 @@
       <c r="E4" s="3">
         <v>0.11388888888888889</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>59400</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>43.955999999999996</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
@@ -668,14 +685,19 @@
       <c r="E5" s="3">
         <v>0.11458333333333333</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -693,14 +715,19 @@
       <c r="E6" s="3">
         <v>0.11666666666666667</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -718,14 +745,19 @@
       <c r="E7" s="3">
         <v>0.11180555555555556</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -743,14 +775,19 @@
       <c r="E8" s="3">
         <v>0.10486111111111111</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -768,14 +805,19 @@
       <c r="E9" s="3">
         <v>0.1076388888888889</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -793,14 +835,19 @@
       <c r="E10" s="3">
         <v>0.11597222222222223</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -818,13 +865,16 @@
       <c r="E11" s="3">
         <v>0.1388888888888889</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>48800</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>36.112000000000002</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
@@ -845,14 +895,19 @@
       <c r="E12" s="3">
         <v>0.10277777777777777</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -870,14 +925,19 @@
       <c r="E13" s="3">
         <v>9.375E-2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -895,14 +955,19 @@
       <c r="E14" s="3">
         <v>0.11666666666666667</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -920,13 +985,16 @@
       <c r="E15" s="3">
         <v>0.13819444444444445</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>53500</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>39.589999999999996</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
@@ -947,14 +1015,19 @@
       <c r="E16" s="3">
         <v>0.11597222222222223</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -972,13 +1045,16 @@
       <c r="E17" s="3">
         <v>0.14027777777777778</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>48800</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>36.112000000000002</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
@@ -999,14 +1075,19 @@
       <c r="E18" s="3">
         <v>0.10972222222222222</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1024,14 +1105,19 @@
       <c r="E19" s="3">
         <v>0.11458333333333333</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1049,14 +1135,19 @@
       <c r="E20" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1074,14 +1165,19 @@
       <c r="E21" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1099,14 +1195,19 @@
       <c r="E22" s="3">
         <v>0.11180555555555556</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1124,14 +1225,19 @@
       <c r="E23" s="3">
         <v>0.11458333333333333</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1149,13 +1255,16 @@
       <c r="E24" s="3">
         <v>0.13819444444444445</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>53500</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>39.589999999999996</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,14 +1285,19 @@
       <c r="E25" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -1201,14 +1315,19 @@
       <c r="E26" s="3">
         <v>0.1076388888888889</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1226,14 +1345,19 @@
       <c r="E27" s="3">
         <v>0.10833333333333334</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1251,14 +1375,19 @@
       <c r="E28" s="3">
         <v>0.10277777777777777</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1276,14 +1405,19 @@
       <c r="E29" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1301,14 +1435,19 @@
       <c r="E30" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1326,14 +1465,19 @@
       <c r="E31" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1351,14 +1495,19 @@
       <c r="E32" s="3">
         <v>0.11736111111111111</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1376,13 +1525,16 @@
       <c r="E33" s="3">
         <v>0.13750000000000001</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>48800</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>36.112000000000002</v>
+      </c>
       <c r="I33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1403,14 +1555,19 @@
       <c r="E34" s="3">
         <v>9.375E-2</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>60200</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>44.548000000000002</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -1428,14 +1585,19 @@
       <c r="E35" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="2"/>
+      <c r="G35" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -1453,13 +1615,16 @@
       <c r="E36" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <v>59400</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
+        <v>43.955999999999996</v>
+      </c>
       <c r="I36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1480,13 +1645,16 @@
       <c r="E37" s="3">
         <v>0.13750000000000001</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <v>48800</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5">
+        <f t="shared" si="0"/>
+        <v>36.112000000000002</v>
+      </c>
       <c r="I37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1507,14 +1675,19 @@
       <c r="E38" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1532,14 +1705,19 @@
       <c r="E39" s="3">
         <v>0.11666666666666667</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="2"/>
+      <c r="G39" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -1557,13 +1735,16 @@
       <c r="E40" s="3">
         <v>0.12638888888888888</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="2">
         <v>53900</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5">
+        <f t="shared" si="0"/>
+        <v>39.886000000000003</v>
+      </c>
       <c r="I40" s="2" t="s">
         <v>11</v>
       </c>
@@ -1584,14 +1765,19 @@
       <c r="E41" s="3">
         <v>0.11666666666666667</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="2"/>
+      <c r="G41" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1609,14 +1795,19 @@
       <c r="E42" s="3">
         <v>0.10902777777777778</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="2"/>
+      <c r="G42" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -1634,14 +1825,19 @@
       <c r="E43" s="3">
         <v>0.11180555555555556</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="2"/>
+      <c r="G43" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -1659,14 +1855,19 @@
       <c r="E44" s="3">
         <v>0.11736111111111111</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="2"/>
+      <c r="G44" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -1684,13 +1885,16 @@
       <c r="E45" s="3">
         <v>0.14166666666666666</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>53500</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5">
+        <f t="shared" si="0"/>
+        <v>39.589999999999996</v>
+      </c>
       <c r="I45" s="2" t="s">
         <v>12</v>
       </c>
@@ -1711,13 +1915,16 @@
       <c r="E46" s="3">
         <v>0.1388888888888889</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="2">
         <v>48800</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
+        <v>36.112000000000002</v>
+      </c>
       <c r="I46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1738,14 +1945,19 @@
       <c r="E47" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="2"/>
+      <c r="G47" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -1763,14 +1975,19 @@
       <c r="E48" s="3">
         <v>0.10694444444444444</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="2"/>
+      <c r="G48" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1788,14 +2005,19 @@
       <c r="E49" s="3">
         <v>0.10694444444444444</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="2"/>
+      <c r="G49" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -1813,14 +2035,19 @@
       <c r="E50" s="3">
         <v>0.11041666666666666</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="2"/>
+      <c r="G50" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1838,14 +2065,19 @@
       <c r="E51" s="3">
         <v>0.10277777777777777</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="2"/>
+      <c r="G51" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -1863,14 +2095,19 @@
       <c r="E52" s="3">
         <v>0.10277777777777777</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="2"/>
+      <c r="G52" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -1888,13 +2125,16 @@
       <c r="E53" s="3">
         <v>0.10555555555555556</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="2">
         <v>59400</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="5">
+        <f t="shared" si="0"/>
+        <v>43.955999999999996</v>
+      </c>
       <c r="I53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1915,13 +2155,16 @@
       <c r="E54" s="3">
         <v>0.13402777777777777</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="2">
         <v>53500</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <f t="shared" si="0"/>
+        <v>39.589999999999996</v>
+      </c>
       <c r="I54" s="2" t="s">
         <v>12</v>
       </c>
@@ -1942,14 +2185,19 @@
       <c r="E55" s="3">
         <v>0.11597222222222223</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -1967,14 +2215,19 @@
       <c r="E56" s="3">
         <v>0.10833333333333334</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -1992,13 +2245,16 @@
       <c r="E57" s="3">
         <v>0.13125000000000001</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="2">
         <v>53500</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5">
+        <f t="shared" si="0"/>
+        <v>39.589999999999996</v>
+      </c>
       <c r="I57" s="2" t="s">
         <v>12</v>
       </c>
@@ -2019,13 +2275,16 @@
       <c r="E58" s="3">
         <v>0.11388888888888889</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="2">
         <v>59400</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5">
+        <f t="shared" si="0"/>
+        <v>43.955999999999996</v>
+      </c>
       <c r="I58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2046,14 +2305,19 @@
       <c r="E59" s="3">
         <v>0.1076388888888889</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="5">
-        <v>59800</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="2">
+        <v>59800</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="0"/>
+        <v>44.252000000000002</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/Gyeongbu_HSR.xlsx
+++ b/datasets/Gyeongbu_HSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\03MyProjects\South_Korea_High-speed_Rail_Planning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB280230-8610-4350-891B-D7E42052D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C855BB3E-FF94-4793-A870-83B625B40339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
